--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1635.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1635.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.0680604277943</v>
+        <v>1.026200652122498</v>
       </c>
       <c r="B1">
-        <v>2.893828563501695</v>
+        <v>3.522655487060547</v>
       </c>
       <c r="C1">
-        <v>3.788128368599675</v>
+        <v>3.856557369232178</v>
       </c>
       <c r="D1">
-        <v>2.396341160341078</v>
+        <v>3.164623975753784</v>
       </c>
       <c r="E1">
-        <v>1.160490833272803</v>
+        <v>1.290530562400818</v>
       </c>
     </row>
   </sheetData>
